--- a/similarities/split_global/harmonic_similarity_timestamps_100.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,762 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A'], ['D:min', 'A:7/E', 'D:min'], ['D:maj/A', 'A:7', 'D:min']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C']]</t>
+          <t>['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:25.940000', '0:00:45.200000'), ('0:00:01.540000', '0:00:06.880000'), ('0:00:52.420000', '0:01:01.260000')]</t>
+          <t>('0:03:55.320000', '0:04:02.100000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:34.560000', '0:00:36.420000'), ('0:00:08.300000', '0:00:12.960000'), ('0:00:34.340000', '0:00:35.880000')]</t>
+          <t>('0:00:22.180000', '0:00:25.400000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=25.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=52.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=235.32</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=34.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=34.34']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=22.18</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:01.640000', '0:00:09.940000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:01:19.980000', '0:01:33.600000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=1.64</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['C:7', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['A#:7', 'D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:20.480000', '0:02:25.980000')]</t>
+          <t>('0:04:05.350000', '0:04:09.930000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:02.860000', '0:00:07.500000')]</t>
+          <t>('0:00:13.860000', '0:00:19.900000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=245.35</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=2.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=13.86</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_147</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:25.720000', '0:00:51.960000')]</t>
+          <t>('0:00:08.740000', '0:00:24.260000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:56.700000', '0:01:59.480000')]</t>
+          <t>('0:00:19.780000', '0:00:29.500000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=25.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=116.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D/5']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:46.600000', '0:00:49.040000')]</t>
+          <t>('0:01:08.640000', '0:01:23.840000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:31.898979', '0:00:34.035215')]</t>
+          <t>('0:00:20.560000', '0:00:30.380000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=46.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=31.898979']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['F:maj', 'Bb:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['Ab', 'Db', 'Bb:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.980000', '0:00:06.140000')]</t>
+          <t>('0:00:45.697000', '0:01:02.760000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:21.280000', '0:01:29.420000')]</t>
+          <t>('0:00:35.765102', '0:00:41.755850')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=45.697</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=35.765102</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:14.620000', '0:00:22.040000'), ('0:00:25.800000', '0:00:31.820000')]</t>
+          <t>('0:01:58.440000', '0:02:01.680000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:10.780000', '0:00:16.280000'), ('0:00:00.360000', '0:00:02.440000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=14.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=25.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:00:13.120000', '0:00:19.960000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+          <t>('0:00:01.880000', '0:00:06.560000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
+          <t>('0:00:44.180000', '0:00:55.220000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:00:14.480000', '0:00:47.200000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=44.18</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=14.48</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>isophonics_173</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['G:maj', 'E:min', 'A:min/C']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['A', 'F#:min', 'B:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:30.020000', '0:00:32.120000')]</t>
+          <t>('0:00:07.580000', '0:00:15.620000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:37.840000', '0:00:42.820000')]</t>
+          <t>('0:00:17.670317', '0:00:31.045011')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=30.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=7.58</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=37.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-173#t=17.670317</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+          <t>('0:00:25.260000', '0:00:45.540000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:00:00.320000', '0:00:10.960000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=25.26</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:12.600000', '0:00:17.860000')]</t>
+          <t>('0:00:23.910000', '0:00:25.870000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:47.680000', '0:00:51.980000')]</t>
+          <t>('0:00:07.470000', '0:00:12.620000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=23.91</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=7.47</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['D:min7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:01.880000', '0:01:07.800000')]</t>
+          <t>('0:01:05.760000', '0:01:11.700000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:33.100000', '0:01:51.540000')]</t>
+          <t>('0:00:11.260000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=61.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=65.76</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=93.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=11.26</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>isophonics_283</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Ab', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C', 'D', 'G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:07.043000', '0:00:10.286000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:01:05.382154', '0:01:17.688730')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.043</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-283#t=65.382154</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7', 'C']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:18.870000', '0:00:25.690000')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:17.180000', '0:00:39.300000')]</t>
+          <t>('0:01:14.879000', '0:01:25.949000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=17.18']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
